--- a/data/trans_camb/P23_5_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_5_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>3,77</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,41</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 5,11</t>
+          <t>-0,98; 7,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 3,95</t>
+          <t>-1,2; 7,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 4,06</t>
+          <t>-0,77; 8,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 3,28</t>
+          <t>-3,69; 3,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 3,5</t>
+          <t>-3,6; 3,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,58</t>
+          <t>-0,57; 8,52</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 4,2</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 4,45</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 7,12</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>70,76%</t>
+          <t>108,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>43,44%</t>
+          <t>119,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>39,34%</t>
+          <t>130,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>-0,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>52,54%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>94,44%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>35,55%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>40,65%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>105,29%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,46; 389,43</t>
+          <t>-44,65; 913,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-50,74; 288,07</t>
+          <t>-48,02; 845,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,28; 233,21</t>
+          <t>-44,41; 1011,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-49,55; 197,47</t>
+          <t>-65,24; 202,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 198,79</t>
+          <t>-65,61; 175,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,82; 137,2</t>
+          <t>-14,29; 379,7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-36,0; 213,21</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-32,87; 210,92</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2,94; 327,04</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-1,48</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 7,84</t>
+          <t>-5,94; 11,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 1,62</t>
+          <t>-8,63; 1,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 0,49</t>
+          <t>-5,43; 7,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 1,89</t>
+          <t>-4,98; 3,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 2,27</t>
+          <t>-4,48; 5,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 0,8</t>
+          <t>-5,51; 2,62</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-4,14; 5,1</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-5,0; 2,16</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-4,65; 3,47</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>30,37%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-43,44%</t>
+          <t>-53,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-48,08%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-26,54%</t>
+          <t>-16,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-14,98%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-34,22%</t>
+          <t>-31,12%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-5,12%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-26,3%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-10,99%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-50,88; 286,29</t>
+          <t>-78,48; 434,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-81,38; 88,15</t>
+          <t>-91,65; 67,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-83,66; 22,58</t>
+          <t>-68,8; 288,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-72,52; 59,47</t>
+          <t>-70,09; 169,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-60,52; 62,47</t>
+          <t>-66,08; 229,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,76; 21,27</t>
+          <t>-76,44; 122,68</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-61,15; 150,69</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-67,98; 75,9</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-62,9; 98,67</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>26,85</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>10,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,59</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>-2,33</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15,3</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,0</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,16</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,0</t>
+          <t>0,0; 66,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 16,64</t>
+          <t>0,0; 38,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 17,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,68</t>
+          <t>-2,4; 17,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,3; 22,09</t>
+          <t>-11,8; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 10,42</t>
+          <t>-11,8; 0,0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2,53; 39,89</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,16; 16,89</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-6,02; 0,0</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>712,46%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>237,23%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>582,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>364,32%</t>
+          <t>170,59%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>655,82%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>291,88%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1314,66%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>343,78%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1047,12 +1243,27 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-5,84; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-45,55; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,03; 6,75</t>
+          <t>0,06; 12,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 2,33</t>
+          <t>-1,7; 5,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 2,31</t>
+          <t>-1,61; 5,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,32</t>
+          <t>-2,72; 2,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,4</t>
+          <t>-2,8; 2,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 1,59</t>
+          <t>-1,92; 4,06</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 5,44</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-1,58; 2,7</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 4,05</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>82,1%</t>
+          <t>117,62%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>33,1%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>44,91%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>36,62%</t>
+          <t>-3,27%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>26,25%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>51,72%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>12,65%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>34,12%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 289,3</t>
+          <t>-10,06; 525,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-50,94; 106,16</t>
+          <t>-38,64; 265,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-43,28; 80,62</t>
+          <t>-36,49; 266,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,47; 86,09</t>
+          <t>-48,16; 91,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 113,63</t>
+          <t>-53,13; 88,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,78; 53,49</t>
+          <t>-37,76; 136,91</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-10,25; 186,09</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-32,42; 94,23</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-19,14; 123,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
